--- a/biology/Botanique/Robrichia_oldemanii/Robrichia_oldemanii.xlsx
+++ b/biology/Botanique/Robrichia_oldemanii/Robrichia_oldemanii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robrichia oldemanii est un grand arbre forestier rare endémique de Guyane, anciennement inclus dans le genre Enterolobium, de la famille des Fabaceae (Mimosoideae).
 Son nom rend hommage au botaniste néerlandais et ancien conservateur de l'Herbier de Guyane (CAY), Roelof Arent Albert Oldeman.
-Il est connu en Guyane sous les noms d’Acacia mâle (Créole), Titim-bati-batra (Nenge tongo), Sucupira-amarela (portugais du Brésil)[5].
+Il est connu en Guyane sous les noms d’Acacia mâle (Créole), Titim-bati-batra (Nenge tongo), Sucupira-amarela (portugais du Brésil).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robrichia oldemanii est une espèce déterminante ZNIEFF en Guyane[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robrichia oldemanii est une espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robrichia oldemanii est un arbre haut de 30 m pour 70 cm diamètre[5], avec un houppier tabulaire large et bas, ressemblant beaucoup à Robrichia schomburgkii (l'écorce de Robrichia oldemanii est lisse, les folioles un peu plus larges, les fleurs presque deux fois grandes, et l'ovaire moins pubescent et moins oblique mais fortement tronqué).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robrichia oldemanii est un arbre haut de 30 m pour 70 cm diamètre, avec un houppier tabulaire large et bas, ressemblant beaucoup à Robrichia schomburgkii (l'écorce de Robrichia oldemanii est lisse, les folioles un peu plus larges, les fleurs presque deux fois grandes, et l'ovaire moins pubescent et moins oblique mais fortement tronqué).
 Les feuilles sont bipennées de formule xvi-xxiii/35-49.
 Les stipules sont précocement caduques (laissant une cicatrice transversale), coriaces, épaisses, de forme inéquilatérale triangulaires-lancéolées ou lancéolées, mesurant 4,0-4,75 x 2,0-2,25 mm.
 Le rachis est long de 6,5-14 cm, et le pétiole de 9-20 mm, effilé à partir d'un pulvinus élargi mais à peine différencié, mesurant de 0,8-1,8 mm de diamètre au milieu.
@@ -564,7 +580,7 @@
 On compte jusqu'à 3 fruits par capitule.
 Il s'agit de gousses recourbées en disques plus ou moins complets (0,5-1,5), de 9-11 cm de diamètre.
 La nervure de la suture est légèrement élargie, avec des valves finement veinuleuses larges de 3,4-4,5 cm, jusqu'à 6 mm d'épaisseur au niveau des graines.
-Les graines de forme ovale-elliptique, mesurant ± 9 × 5 mm, rangées dans des alvéoles sur sur 2 ou 3 rangs, avec un mésocarpe ligneux de couleur brune, sont entourées d'un tégument apparemment brun brillant[7],[4].
+Les graines de forme ovale-elliptique, mesurant ± 9 × 5 mm, rangées dans des alvéoles sur sur 2 ou 3 rangs, avec un mésocarpe ligneux de couleur brune, sont entourées d'un tégument apparemment brun brillant,.
 </t>
         </is>
       </c>
@@ -593,9 +609,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robrichia oldemanii est endémique de Guyane (région de Cayenne, Piste-de-St-Elie entre le Sinnamary et la Counamama). Des fruits auraient été collectés du Brésil (Amazonas)[7],[4],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robrichia oldemanii est endémique de Guyane (région de Cayenne, Piste-de-St-Elie entre le Sinnamary et la Counamama). Des fruits auraient été collectés du Brésil (Amazonas).
 </t>
         </is>
       </c>
@@ -624,9 +642,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robrichia oldemanii est un arbre des forêts anciennes non perturbées[7], à feuillage caduc fleurissant en octobre-novembre[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robrichia oldemanii est un arbre des forêts anciennes non perturbées, à feuillage caduc fleurissant en octobre-novembre.
 </t>
         </is>
       </c>
@@ -655,13 +675,15 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maigre pulpe qui entoure les graines de Robrichia oldemanii est sucrée et comestible[5].
-Le bois de Robrichia oldemanii est assez lourd (densité : 0,8-0,9), de couleur jaune doré irrégulièrement veiné de brun violacé, devenant brun-jaune ou beige rougeâtre, résistant aux champignons, aux termites et autres insectes xylophages, employé en charpenterie lourde, en menuiserie intérieure et extérieure, et en ébénisterie[5],[9].
-Notons que la gomme du tronc d'une espèce proche (Robrichia schomburgkii) serait un remède populaire en Amérique centrale pour soigner la bronchite et d'autres douleurs de poitrine. Le sirop tiré de l'écorce aurait des vertus pour traiter le rhumes et les catarrhes, les hémorroïdes, et le cataplasme de feuilles appaiserait les tumeurs enflammées[10],[11].
-L'extrait de bois d'une espèce proche (Robrichia schomburgkii) présente une activité antimicrobienne[12].
-L'écorce épaisse d'une espèce proche d'Amérique centrale (Enterolobium cyclocarpum) est employée pour le tannage des peaux et du cuir, et pour produire une sorte de lessive pour laver les vêtements, et ses graines très dures et cerclées d'un trait orangé servent à fabriquer des bijoux[13].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maigre pulpe qui entoure les graines de Robrichia oldemanii est sucrée et comestible.
+Le bois de Robrichia oldemanii est assez lourd (densité : 0,8-0,9), de couleur jaune doré irrégulièrement veiné de brun violacé, devenant brun-jaune ou beige rougeâtre, résistant aux champignons, aux termites et autres insectes xylophages, employé en charpenterie lourde, en menuiserie intérieure et extérieure, et en ébénisterie,.
+Notons que la gomme du tronc d'une espèce proche (Robrichia schomburgkii) serait un remède populaire en Amérique centrale pour soigner la bronchite et d'autres douleurs de poitrine. Le sirop tiré de l'écorce aurait des vertus pour traiter le rhumes et les catarrhes, les hémorroïdes, et le cataplasme de feuilles appaiserait les tumeurs enflammées,.
+L'extrait de bois d'une espèce proche (Robrichia schomburgkii) présente une activité antimicrobienne.
+L'écorce épaisse d'une espèce proche d'Amérique centrale (Enterolobium cyclocarpum) est employée pour le tannage des peaux et du cuir, et pour produire une sorte de lessive pour laver les vêtements, et ses graines très dures et cerclées d'un trait orangé servent à fabriquer des bijoux.
 </t>
         </is>
       </c>
@@ -690,11 +712,13 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>En 1996, les botanistes Barneby &amp; J.W. Grimes proposent le protologue suivant pour Enterolobium oldemanii, basionyme de Robrichia oldemanii (Barneby &amp; J.W. Grimes) A.R.M. Luz &amp; É.R. Souza : 
 « Enterolobium oldemanii Barneby &amp; Grimes, sp. nov. E. schomburgkii floribus terminalibus disco lobulato provisis et staminibus 10-meris simulans sect ab eo foliolis plurumque latioribus (0.7-1.2 nee 0.5-0.8 mm) floribus fere duplo longioribus et ovario minus pubescenti minus oblique tamen valde truncato differt. - FRENCH GUIANA. Ancienne réserve forestière du Matoury, Ile de Cayenne, 30 aout 1966 (fl.), Oldeman 2242. - Holotypus, P!; isotypi, CAY (2 sheets)!, NY (fragm.)!. Fig. 18H. »
-— Rupert Charles Barneby &amp; James Walter Grimes, 1996[4].</t>
+— Rupert Charles Barneby &amp; James Walter Grimes, 1996.</t>
         </is>
       </c>
     </row>
